--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -24,12 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>PA_U1</t>
-  </si>
-  <si>
-    <t>PA_U2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>PO_U1</t>
+  </si>
+  <si>
+    <t>PO_U2</t>
+  </si>
+  <si>
+    <t>PO_U3</t>
+  </si>
+  <si>
+    <t>PO_LPV</t>
+  </si>
+  <si>
+    <t>AOSO_U1</t>
+  </si>
+  <si>
+    <t>AOSO_U2</t>
+  </si>
+  <si>
+    <t>AOSO_U3</t>
+  </si>
+  <si>
+    <t>AOSO_LPV</t>
   </si>
 </sst>
 </file>
@@ -91,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,28 +401,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="1">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
         <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,29 +436,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
         <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PO_U1</t>
   </si>
@@ -48,6 +48,42 @@
   </si>
   <si>
     <t>AOSO_LPV</t>
+  </si>
+  <si>
+    <t>HD_U1</t>
+  </si>
+  <si>
+    <t>HD_U2</t>
+  </si>
+  <si>
+    <t>HD_U3</t>
+  </si>
+  <si>
+    <t>HD_LPV</t>
+  </si>
+  <si>
+    <t>OT_U1</t>
+  </si>
+  <si>
+    <t>OOP_U1</t>
+  </si>
+  <si>
+    <t>OT_U2</t>
+  </si>
+  <si>
+    <t>OOP_U2</t>
+  </si>
+  <si>
+    <t>OT_U3</t>
+  </si>
+  <si>
+    <t>OOP_U3</t>
+  </si>
+  <si>
+    <t>OT_LPV</t>
+  </si>
+  <si>
+    <t>OOP_LPV</t>
   </si>
 </sst>
 </file>
@@ -109,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,15 +440,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -434,8 +473,44 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -446,7 +521,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -459,6 +534,42 @@
       </c>
       <c r="H2" s="1">
         <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+      <c r="J2" s="4">
+        <v>365</v>
+      </c>
+      <c r="K2" s="4">
+        <v>245</v>
+      </c>
+      <c r="L2" s="4">
+        <v>352</v>
+      </c>
+      <c r="M2" s="4">
+        <v>261</v>
+      </c>
+      <c r="N2" s="4">
+        <v>109</v>
+      </c>
+      <c r="O2" s="4">
+        <v>100</v>
+      </c>
+      <c r="P2" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>156</v>
+      </c>
+      <c r="R2" s="4">
+        <v>100</v>
+      </c>
+      <c r="S2" s="4">
+        <v>100</v>
+      </c>
+      <c r="T2" s="4">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -440,10 +440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:T3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,13 +539,13 @@
         <v>200</v>
       </c>
       <c r="J2" s="4">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="K2" s="4">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="L2" s="4">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="M2" s="4">
         <v>261</v>
@@ -554,13 +554,13 @@
         <v>109</v>
       </c>
       <c r="O2" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="4">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="R2" s="4">
         <v>100</v>
@@ -569,7 +569,12 @@
         <v>100</v>
       </c>
       <c r="T2" s="4">
-        <v>606</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -440,10 +440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,13 +545,14 @@
         <v>300</v>
       </c>
       <c r="L2" s="4">
-        <v>330</v>
-      </c>
-      <c r="M2" s="4">
-        <v>261</v>
+        <v>157</v>
+      </c>
+      <c r="M2" s="1">
+        <f>M3-(L2+N2)</f>
+        <v>274</v>
       </c>
       <c r="N2" s="4">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O2" s="4">
         <v>200</v>
@@ -563,18 +564,22 @@
         <v>400</v>
       </c>
       <c r="R2" s="4">
-        <v>100</v>
-      </c>
-      <c r="S2" s="4">
-        <v>100</v>
+        <v>332</v>
+      </c>
+      <c r="S2" s="1">
+        <f>S3-(R2+T2)</f>
+        <v>328</v>
       </c>
       <c r="T2" s="4">
-        <v>700</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>160</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M3" s="4">
+        <v>531</v>
+      </c>
+      <c r="S3" s="4">
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -442,8 +442,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,32 +536,34 @@
         <v>10</v>
       </c>
       <c r="I2" s="4">
-        <v>200</v>
-      </c>
-      <c r="J2" s="4">
-        <v>100</v>
+        <v>275</v>
+      </c>
+      <c r="J2" s="1">
+        <f>J3-(I2+K2)</f>
+        <v>398</v>
       </c>
       <c r="K2" s="4">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="L2" s="4">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="M2" s="1">
         <f>M3-(L2+N2)</f>
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="N2" s="4">
         <v>100</v>
       </c>
       <c r="O2" s="4">
-        <v>200</v>
-      </c>
-      <c r="P2" s="4">
-        <v>200</v>
+        <v>115</v>
+      </c>
+      <c r="P2" s="1">
+        <f>P3-(O2+Q2)</f>
+        <v>207</v>
       </c>
       <c r="Q2" s="4">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="R2" s="4">
         <v>332</v>
@@ -575,8 +577,14 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>771</v>
+      </c>
       <c r="M3" s="4">
         <v>531</v>
+      </c>
+      <c r="P3" s="1">
+        <v>360</v>
       </c>
       <c r="S3" s="4">
         <v>724</v>

--- a/Indicateurs2.xlsx
+++ b/Indicateurs2.xlsx
@@ -442,8 +442,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,6 @@
         <v>275</v>
       </c>
       <c r="J2" s="1">
-        <f>J3-(I2+K2)</f>
         <v>398</v>
       </c>
       <c r="K2" s="4">
@@ -549,7 +548,6 @@
         <v>127</v>
       </c>
       <c r="M2" s="1">
-        <f>M3-(L2+N2)</f>
         <v>304</v>
       </c>
       <c r="N2" s="4">
@@ -559,7 +557,6 @@
         <v>115</v>
       </c>
       <c r="P2" s="1">
-        <f>P3-(O2+Q2)</f>
         <v>207</v>
       </c>
       <c r="Q2" s="4">
@@ -569,7 +566,6 @@
         <v>332</v>
       </c>
       <c r="S2" s="1">
-        <f>S3-(R2+T2)</f>
         <v>328</v>
       </c>
       <c r="T2" s="4">
@@ -577,18 +573,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J3" s="1">
-        <v>771</v>
-      </c>
-      <c r="M3" s="4">
-        <v>531</v>
-      </c>
-      <c r="P3" s="1">
-        <v>360</v>
-      </c>
-      <c r="S3" s="4">
-        <v>724</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="4"/>
+      <c r="P3" s="1"/>
+      <c r="S3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
